--- a/DataFile/TestNGDataFile.xlsx
+++ b/DataFile/TestNGDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\User_Data\MavenPractice\MavFramework\DataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1793A3A3-C6F1-42DD-9112-56CC732A5313}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F99BC5-4D4A-4E3B-92AA-C9059E1282AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>UserName</t>
   </si>
@@ -33,24 +33,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Pankaj</t>
-  </si>
-  <si>
-    <t>Test@123</t>
-  </si>
-  <si>
-    <t>Sinha</t>
-  </si>
-  <si>
-    <t>Tester@123</t>
-  </si>
-  <si>
-    <t>Dinesh</t>
-  </si>
-  <si>
-    <t>dinesh@123</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
@@ -60,14 +42,29 @@
     <t>QA</t>
   </si>
   <si>
-    <t>BA</t>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>Pass@1</t>
+  </si>
+  <si>
+    <t>Pass@2</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://automationpractice.com/index.php</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +76,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -389,19 +392,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,47 +413,47 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E5391A0E-87EB-4D9D-A69C-EBDD943A3C4C}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{253452E1-2694-43CF-9124-3D435DDAE206}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{79802163-831A-437D-B905-288C67580C51}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{37CF1726-A138-4F5E-92F8-25B97CD96D33}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{DE4D9FDD-F552-4810-9A13-170A63AA92F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
